--- a/dayLog/打卡积分记录.xlsx
+++ b/dayLog/打卡积分记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24751C4E-0B86-4CE4-9DB6-EBF0B2953224}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5172D2F7-485C-43C9-842B-4714ABBE0D1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>学习积分兑换表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,6 +183,10 @@
   </si>
   <si>
     <t>ysl黑鸦片 （或奇迹）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6点 1积分     7-8点 1积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +516,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -798,6 +802,15 @@
       <c r="A26" s="1">
         <v>43570</v>
       </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+      <c r="E26">
+        <v>17.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dayLog/打卡积分记录.xlsx
+++ b/dayLog/打卡积分记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5172D2F7-485C-43C9-842B-4714ABBE0D1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230E95B-0D4A-4E61-953B-1955F5B2F5BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>学习积分兑换表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -187,6 +187,14 @@
   </si>
   <si>
     <t>5-6点 1积分     7-8点 1积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6点 1积分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6点 1积分     7-9点 2积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -812,6 +820,34 @@
         <v>17.5</v>
       </c>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>43571</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43572</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>21.5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dayLog/打卡积分记录.xlsx
+++ b/dayLog/打卡积分记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E230E95B-0D4A-4E61-953B-1955F5B2F5BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42462DE9-E815-4B4E-BE2E-13354BF2FF4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>学习积分兑换表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,7 +194,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5-6点 1积分     7-9点 2积分</t>
+    <t xml:space="preserve">5-6点 1积分     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6点 1积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +525,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
@@ -842,10 +846,18 @@
         <v>43</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>21.5</v>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43573</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/dayLog/打卡积分记录.xlsx
+++ b/dayLog/打卡积分记录.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42462DE9-E815-4B4E-BE2E-13354BF2FF4C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884AF02C-EFAA-4DB5-9826-B5C514CE0BA5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1935" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>学习积分兑换表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +195,10 @@
   </si>
   <si>
     <t xml:space="preserve">5-6点 1积分     </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-6点 1积分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -525,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -859,6 +863,40 @@
       <c r="C29" t="s">
         <v>44</v>
       </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43574</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C31" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>22.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
